--- a/data/trans_camb/P57_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P57_R-Clase-trans_camb.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>-2.161571865824576</v>
+        <v>-2.161571865824574</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>-2.174098774366935</v>
+        <v>-2.174098774366937</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-2.219652218248613</v>
+        <v>-2.219652218248615</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.73602162751542</v>
+        <v>-6.541908729522556</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-6.819162676930129</v>
+        <v>-6.45812701151593</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.420310850149114</v>
+        <v>-5.273749523246891</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.629969238615101</v>
+        <v>2.589600176055077</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.996547968244847</v>
+        <v>1.80405949468345</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.023252216122362</v>
+        <v>0.6951914090069966</v>
       </c>
     </row>
     <row r="7">
@@ -615,13 +615,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>-0.1589357668132294</v>
+        <v>-0.1589357668132292</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>-0.1925078383194168</v>
+        <v>-0.192507838319417</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.1765902236433602</v>
+        <v>-0.1765902236433603</v>
       </c>
     </row>
     <row r="8">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4116104222071595</v>
+        <v>-0.4134407791115342</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4622370012548116</v>
+        <v>-0.4539516297065488</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3669434352559155</v>
+        <v>-0.3761258216154957</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2344269300841011</v>
+        <v>0.2354839121160362</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.2371282763940117</v>
+        <v>0.2308670216377939</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.09427540579859936</v>
+        <v>0.06601460166817012</v>
       </c>
     </row>
     <row r="10">
@@ -673,10 +673,10 @@
         <v>-2.630795326910615</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>-1.930490606715205</v>
+        <v>-1.930490606715202</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-2.372045079195197</v>
+        <v>-2.372045079195198</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-7.156087606003426</v>
+        <v>-7.42165108343547</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-6.799728051348747</v>
+        <v>-7.246155119009864</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.45125683527715</v>
+        <v>-5.805139816935633</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.448935126477702</v>
+        <v>1.49041227555789</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.038262058612333</v>
+        <v>2.72514899875152</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8767840319365604</v>
+        <v>0.9495038246095668</v>
       </c>
     </row>
     <row r="13">
@@ -724,10 +724,10 @@
         <v>-0.2139718513277475</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-0.1325760215574274</v>
+        <v>-0.1325760215574272</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.1767622877880128</v>
+        <v>-0.1767622877880129</v>
       </c>
     </row>
     <row r="14">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4814294976413671</v>
+        <v>-0.4948835149239657</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3760851849671398</v>
+        <v>-0.3952638904275385</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.357074031859451</v>
+        <v>-0.3654252838198024</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1500033983002949</v>
+        <v>0.1486163124904946</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.275289501416688</v>
+        <v>0.2363502519480724</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.08120319920203189</v>
+        <v>0.08746684006659361</v>
       </c>
     </row>
     <row r="16">
@@ -782,7 +782,7 @@
         <v>-11.82385208807179</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-8.727148080731279</v>
+        <v>-8.727148080731276</v>
       </c>
     </row>
     <row r="17">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-12.56082538481089</v>
+        <v>-12.84252989179308</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-20.65208504249845</v>
+        <v>-21.02168190665007</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-13.30328677125198</v>
+        <v>-12.70044560648181</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-2.956682197476499</v>
+        <v>-3.126589644541562</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-2.720875930210106</v>
+        <v>-2.95494181907952</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-4.507806470467478</v>
+        <v>-4.207497054139732</v>
       </c>
     </row>
     <row r="19">
@@ -833,7 +833,7 @@
         <v>-0.3913457229932691</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.3598728545309637</v>
+        <v>-0.3598728545309636</v>
       </c>
     </row>
     <row r="20">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.5096812340996824</v>
+        <v>-0.5133011596165867</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.5779843108881765</v>
+        <v>-0.5643442801918231</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4873209441142094</v>
+        <v>-0.4778129479860725</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.14931829359488</v>
+        <v>-0.1573791941876022</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.1121934350186108</v>
+        <v>-0.091481789812004</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.1992495065907277</v>
+        <v>-0.1984155085731023</v>
       </c>
     </row>
     <row r="22">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>-4.30679846162883</v>
+        <v>-4.306798461628825</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>-8.324856089898372</v>
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-7.4260604135488</v>
+        <v>-7.332193400017547</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-11.83779469485509</v>
+        <v>-11.86492047797268</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-8.298326856080399</v>
+        <v>-8.510585641401448</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.9606299332368057</v>
+        <v>-1.194926896588149</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-4.960643433661482</v>
+        <v>-5.187045270009543</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-3.73763358611278</v>
+        <v>-3.950950117448035</v>
       </c>
     </row>
     <row r="25">
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="C25" s="6" t="n">
-        <v>-0.228079266122374</v>
+        <v>-0.2280792661223737</v>
       </c>
       <c r="D25" s="6" t="n">
         <v>-0.4030026393510697</v>
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.3509025712246703</v>
+        <v>-0.3567112543345688</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.5154249781033846</v>
+        <v>-0.5164260508590086</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3933125949191978</v>
+        <v>-0.398523492133771</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.05140190501234174</v>
+        <v>-0.06484463097332048</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.2585463454670486</v>
+        <v>-0.2752997349498147</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.2008962615999599</v>
+        <v>-0.214901249232552</v>
       </c>
     </row>
     <row r="28">
@@ -988,13 +988,13 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>-8.159572306018164</v>
+        <v>-8.159572306018168</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>-6.177867771820206</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-6.765531673596</v>
+        <v>-6.765531673596007</v>
       </c>
     </row>
     <row r="29">
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-13.31763596998739</v>
+        <v>-13.17921462758057</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-10.53129238914174</v>
+        <v>-10.32217808353947</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-10.26537831147218</v>
+        <v>-9.887495395751355</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-3.142962546148787</v>
+        <v>-3.015891756021095</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-2.091823466235243</v>
+        <v>-1.757715146152029</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-3.945260270157892</v>
+        <v>-3.657955805336541</v>
       </c>
     </row>
     <row r="31">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>-0.2979554815055259</v>
+        <v>-0.297955481505526</v>
       </c>
       <c r="D31" s="6" t="n">
         <v>-0.1949278823381049</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.2275971660164406</v>
+        <v>-0.2275971660164408</v>
       </c>
     </row>
     <row r="32">
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.4416896700669012</v>
+        <v>-0.4378117816393359</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.3052978569587659</v>
+        <v>-0.3008814025889593</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.3192355284339211</v>
+        <v>-0.3132610503655407</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.1308703460885462</v>
+        <v>-0.1181321114533943</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.06830451840543773</v>
+        <v>-0.0578645128524271</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.1378673166705854</v>
+        <v>-0.130908736633943</v>
       </c>
     </row>
     <row r="34">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-5.252697198084055</v>
+        <v>-5.236013193788692</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-7.857119446505142</v>
+        <v>-8.097615484073309</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-6.791108880010032</v>
+        <v>-7.043835419290688</v>
       </c>
     </row>
     <row r="36">
@@ -1128,13 +1128,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>3.710058204330301</v>
+        <v>3.412975278629975</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>-0.06905296131094366</v>
+        <v>-0.2794711641774613</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-0.663874318508729</v>
+        <v>-0.4200450004007443</v>
       </c>
     </row>
     <row r="37">
@@ -1162,13 +1162,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.6668160087695419</v>
+        <v>-0.6700149769671243</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.2836929953045726</v>
+        <v>-0.2869522308919903</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.2895756397020731</v>
+        <v>-0.3014156420217008</v>
       </c>
     </row>
     <row r="39">
@@ -1179,13 +1179,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.9860229466212977</v>
+        <v>0.7916424461459701</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>-0.006528209419307693</v>
+        <v>-0.01082768968612753</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.0293067814065727</v>
+        <v>-0.02004671050726892</v>
       </c>
     </row>
     <row r="40">
@@ -1206,7 +1206,7 @@
         <v>-6.017920650214601</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-5.521867910219819</v>
+        <v>-5.521867910219822</v>
       </c>
     </row>
     <row r="41">
@@ -1217,13 +1217,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-6.76535960934576</v>
+        <v>-6.857579289167624</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-7.751608142808776</v>
+        <v>-7.810716343392111</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-6.742572061301658</v>
+        <v>-6.743142076122793</v>
       </c>
     </row>
     <row r="42">
@@ -1234,13 +1234,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-3.304477283590922</v>
+        <v>-3.212088643785891</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-4.272353542929013</v>
+        <v>-4.202542794609545</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-4.171073774706366</v>
+        <v>-4.189292714796339</v>
       </c>
     </row>
     <row r="43">
@@ -1257,7 +1257,7 @@
         <v>-0.2559095830889864</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.2621821862797754</v>
+        <v>-0.2621821862797755</v>
       </c>
     </row>
     <row r="44">
@@ -1268,13 +1268,13 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.3497673179132995</v>
+        <v>-0.3515569954901206</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.3148646008728725</v>
+        <v>-0.3214498827561479</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.3100592342996088</v>
+        <v>-0.3095525124998535</v>
       </c>
     </row>
     <row r="45">
@@ -1285,13 +1285,13 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>-0.1864603792119584</v>
+        <v>-0.1845395235344597</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.1883356676612655</v>
+        <v>-0.1884951445770032</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.2055689239927934</v>
+        <v>-0.206777023919969</v>
       </c>
     </row>
     <row r="46">
